--- a/DOM_Banner/output/dept0713/Christian Bime_2022.xlsx
+++ b/DOM_Banner/output/dept0713/Christian Bime_2022.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P16"/>
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,75 +365,80 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>affiliation</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>publication_date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>so</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>host_organization</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>license</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>oa_status</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>language</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>cited_by_count</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>publication_year</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>pmid</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>doi</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -447,75 +452,80 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>University of California, San Francisco; San Francisco; CA; USA; University of Vermont, Burlington, VT; College of Medicine, The University of Arizona Health Science, Tucson, AZ; Department of Medicine, University of California, San Francisco, San Francisco, CA; Zuckerberg San Francisco General Hospital, San Francisco, CA; Children’s Lung Health, Wal-yan Respiratory Research Centre, Telethon Kids Institute and School of Allied Health, Curtin University, Perth, WA, Australia; Johns Hopkins University, Baltimore, MD; Dalhousie University, Halifax, NS, Canada</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W3195226059</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Addressing Race in Pulmonary Function Testing by Aligning Intent and Evidence With Practice and Perception</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2022-01-01</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Chest</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.chest.2021.08.053</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>cc-by-nc-nd</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>hybrid</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>52</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/34437887</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.chest.2021.08.053</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -529,75 +539,80 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t xml:space="preserve">Clinical &amp; Data Coordinating Center (CDCC); Precision Vaccines Program, Boston Children's Hospital, Boston, MA, United States; David Geffen School of Medicine at the University of California Los Angeles, Los Angeles, CA, United States; Benaroya Research Institute, Seattle, WA, United States; Clinical &amp; Data Coordinating Center (CDCC); Precision Vaccines Program, Boston Children's Hospital, Boston, MA, United States; University of California San Francisco School of Medicine, San Francisco, CA, United States; Drexel University/Tower Health Hospital, Philadelphia, PA, United States; University of Arizona, Tucson, AZ, United States; Boston Clinical Site: Precision Vaccines Program, Boston Children's Hospital, Brigham and Women's Hospital, and Harvard Medical School, Boston, MA, United States; Yale School of Medicine, and Yale School of Public Health, New Haven, CT, United States; Icahn School of Medicine at Mount Sinai, New York, NY, United States; Icahn School of Medicine at Mount Sinai, New York, NY, United States; Yale School of Medicine, and Yale School of Public Health, New Haven, CT, United States; Clinical &amp; Data Coordinating Center (CDCC); Precision Vaccines Program, Boston Children's Hospital, Boston, MA, United States; Icahn School of Medicine at Mount Sinai, New York, NY, United States; Icahn School of Medicine at Mount Sinai, New York, NY, United States; Yale School of Medicine, and Yale School of Public Health, New Haven, CT, United States; Yale School of Medicine, and Yale School of Public Health, New Haven, CT, United States; Yale School of Medicine, and Yale School of Public Health, New Haven, CT, United States; Boston Clinical Site: Precision Vaccines Program, Boston Children's Hospital, Brigham and Women's Hospital, and Harvard Medical School, Boston, MA, United States; University of Arizona, Tucson, AZ, United States; Drexel University/Tower Health Hospital, Philadelphia, PA, United States; University of California San Francisco School of Medicine, San Francisco, CA, United States; Stanford University, Palo Alto, CA, United States; Stanford University, Palo Alto, CA, United States; Stanford University, Palo Alto, CA, United States; Oregon Health Sciences University, Portland, OR, United States; Oregon Health Sciences University, Portland, OR, United States; Oklahoma University Health Sciences Center, Oklahoma, OK, United States; Oklahoma University Health Sciences Center, Oklahoma, OK, United States; University of Florida, Gainesville and University of South Florida, Tampa, FL, United States; University of Florida, Gainesville and University of South Florida, Tampa, FL, United States; Baylor College of Medicine, and the Center for Translational Research on Inflammatory Diseases, Michael E. DeBakey, Houston, TX, United States; Baylor College of Medicine, and the Center for Translational Research on Inflammatory Diseases, Michael E. DeBakey, Houston, TX, United States; The University of Texas at Austin, Austin, TX, United States; The University of Texas at Austin, Austin, TX, United States; Case Western Reserve University, Cleveland, OH, United States; Case Western Reserve University, Cleveland, OH, United States; Clinical &amp; Data Coordinating Center (CDCC); Precision Vaccines Program, Boston Children's Hospital, Boston, MA, United States; La Jolla Institute for Immunology, La Jolla, CA, United States; National Institute of Allergy and Infectious Diseases/National Institutes of Health, Bethesda, MD, United States; David Geffen School of Medicine at the University of California Los Angeles, Los Angeles, CA, United States; Benaroya Research Institute, Seattle, WA, United States; National Institute of Allergy and Infectious Diseases/National Institutes of Health, Bethesda, MD, United States; Emory University, Atlanta, GA, United States; Clinical &amp; Data Coordinating Center (CDCC); Precision Vaccines Program, Boston Children's Hospital, Boston, MA, United States; David Geffen School of Medicine at the University of California Los Angeles, Los Angeles, CA, United States; Benaroya Research Institute, Seattle, WA, United States; Clinical &amp; Data Coordinating Center (CDCC); Precision Vaccines Program, Boston Children's Hospital, Boston, MA, United States; University of California San Francisco School of Medicine, San Francisco, CA, United States; Drexel University/Tower Health Hospital, Philadelphia, PA, United States; University of Arizona, Tucson, AZ, United States; Boston Clinical Site: Precision Vaccines Program, Boston Children's Hospital, Brigham and Women's Hospital, and Harvard Medical School, Boston, MA, United States; Yale School of Medicine, and Yale School of Public Health, New Haven, CT, United States; Icahn School of Medicine at Mount Sinai, New York, NY, United States; Icahn School of Medicine at Mount Sinai, New York, NY, United States; Yale School of Medicine, and Yale School of Public Health, New Haven, CT, United States; Clinical &amp; Data Coordinating Center (CDCC); Precision Vaccines Program, Boston Children's Hospital, Boston, MA, United States; Icahn School of Medicine at Mount Sinai, New York, NY, United States; Icahn School of Medicine at Mount Sinai, New York, NY, United States; Yale School of Medicine, and Yale School of Public Health, New Haven, CT, United States; Yale School of Medicine, and Yale School of Public Health, New Haven, CT, United States; Yale School of Medicine, and Yale School of Public Health, New Haven, CT, United States; Boston Clinical Site: Precision Vaccines Program, Boston Children's Hospital, Brigham and Women's Hospital, and Harvard Medical School, Boston, MA, United States; University of Arizona, Tucson, AZ, United States; Drexel University/Tower Health Hospital, Philadelphia, PA, United States; University of California San Francisco School of Medicine, San Francisco, CA, United States; Stanford University, Palo Alto, CA, United States; Stanford University, Palo Alto, CA, United States; Stanford University, Palo Alto, CA, United States; Oregon Health Sciences University, Portland, OR, United States; Oregon Health Sciences University, Portland, OR, United States; Oklahoma University Health Sciences Center, Oklahoma, OK, United States; Oklahoma University Health Sciences Center, Oklahoma, OK, United States; University of Florida, Gainesville and University of South Florida, Tampa, FL, United States; University of Florida, Gainesville and University of South Florida, Tampa, FL, United States; Baylor College of Medicine, and the Center for Translational Research on Inflammatory Diseases, Michael E. DeBakey, Houston, TX, United States; Baylor College of Medicine, and the Center for Translational Research on Inflammatory Diseases, Michael E. DeBakey, Houston, TX, United States; The University of Texas at Austin, Austin, TX, United States; The University of Texas at Austin, Austin, TX, United States; Case Western Reserve University, Cleveland, OH, United States; Case Western Reserve University, Cleveland, OH, United States; Clinical &amp; Data Coordinating Center (CDCC); Precision Vaccines Program, Boston Children's Hospital, Boston, MA, United States; La Jolla Institute for Immunology, La Jolla, CA, United States; National Institute of Allergy and Infectious Diseases/National Institutes of Health, Bethesda, MD, United States; David Geffen School of Medicine at the University of California Los Angeles, Los Angeles, CA, United States; ; ; ; ; ; ; Yale School of Medicine, and Yale School of Public Health, New Haven, CT, United States; ; ; ; ; ; ; University of Florida, Gainesville and University of South Florida, Tampa, FL, United States; </t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4291676337</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>Phenotypes of disease severity in a cohort of hospitalized COVID-19 patients: Results from the IMPACC study</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2022-09-01</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>EBioMedicine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.ebiom.2022.104208</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>cc-by-nc-nd</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>28</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35952496</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.ebiom.2022.104208</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -611,75 +626,80 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>University of Arizona Health Sciences; Department of Medicine, University of Arizona Health Sciences, Tucson, USA; Department of Medicine, University of Arizona Health Sciences, Tucson, USA; Department of Medicine, University of Arizona Health Sciences, Tucson, USA; Department of Medicine, University of Arizona Health Sciences, Tucson, USA; Department of Radiation Oncology, University of Arizona Health Sciences, Tucson, USA; Department of Medicine, University of Arizona Health Sciences, Tucson, USA; Department of Medicine, University of Arizona Health Sciences, Tucson, USA; Department of Medicine, University of Arizona Health Sciences, Tucson, USA; Department of Cellular and Molecular Medicine, University of Arizona Health Sciences, Tucson, USA; Department of Medicine, Indiana University, Indianapolis, USA; Department of Medicine, University of Illinois Chicago, Chicago, USA; Department of Medicine, University of Illinois Chicago, Chicago, USA; Department of Medicine, University of Illinois Chicago, Chicago, USA; Institute of Surgical Research, San Antonio, USA; Institute of Surgical Research, San Antonio, USA; Department of Medicine, University of Arizona Health Sciences, Tucson, USA; Institute of Surgical Research, San Antonio, USA; College of Pharmacy, University of Arizona Health Sciences, Tucson, USA; Department of Medicine, University of Arizona Health Sciences, Tucson, USA; Department of Medicine, University of Arizona Health Sciences, Tucson, USA; Department of Medicine, University of Arizona Health Sciences, Tucson, USA</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4207004303</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>eNAMPT neutralization reduces preclinical ARDS severity via rectified NFkB and Akt/mTORC2 signaling</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2022-01-13</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>Scientific Reports</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>Nature Portfolio</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>https://doi.org/10.1038/s41598-021-04444-9</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35027578</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>https://doi.org/10.1038/s41598-021-04444-9</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -693,75 +713,80 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4285036763</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>SARS-CoV-2 Brain Regional Detection, Histopathology, Gene Expression, and Immunomodulatory Changes in Decedents with COVID-19</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>2022-07-11</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>Journal of Neuropathology and Experimental Neurology</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>Oxford University Press</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>https://doi.org/10.1093/jnen/nlac056</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35818336</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="P5" t="inlineStr">
         <is>
           <t>https://doi.org/10.1093/jnen/nlac056</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -775,75 +800,80 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>Department of Radiation Oncology, University of Arizona Health Sciences, Tucson, Arizona; Department of Medicine, University of Arizona Health Sciences, Tucson, Arizona; Department of Radiation Oncology, University of Arizona Health Sciences, Tucson, Arizona; Department of Medicine, University of Arizona Health Sciences, Tucson, Arizona; Department of Medicine, University of Arizona Health Sciences, Tucson, Arizona; Department of Medicine, University of Arizona Health Sciences, Tucson, Arizona; Department of Medicine, University of Arizona Health Sciences, Tucson, Arizona; Department of Medicine, University of Arizona Health Sciences, Tucson, Arizona; Department of Medicine, University of Arizona Health Sciences, Tucson, Arizona; Department of Medicine, University of Arizona Health Sciences, Tucson, Arizona; Department of Medicine, University of Arizona Health Sciences, Tucson, Arizona; Department of Medicine, University of Arizona Health Sciences, Tucson, Arizona; Department of Medicine, University of Arizona Health Sciences, Tucson, Arizona; Department of Medicine, University of Arizona Health Sciences, Tucson, Arizona; Department of Medical Imaging, University of Arizona Health Sciences, Tucson, Arizona; Department of Medicine, University of Arizona Health Sciences, Tucson, Arizona; Department of Radiology and the Translational Imaging Center, Houston Methodist Research Institute, Houston, Texas; Department of Medical Imaging, University of Arizona Health Sciences, Tucson, Arizona; Department of Medicine, University of Arizona Health Sciences, Tucson, Arizona; Department of Medicine, University of Arizona Health Sciences, Tucson, Arizona; Department of Cell and Molecular Medicine, University of Arizona Health Sciences, Tucson, Arizona; Department of Medicine, University of Arizona Health Sciences, Tucson, Arizona</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>https://openalex.org/W3166756180</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>Involvement of eNAMPT/TLR4 signaling in murine radiation pneumonitis: protection by eNAMPT neutralization</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>2022-01-01</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>Translational Research</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.trsl.2021.06.002</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>publisher-specific-oa</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>acceptedVersion</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>hybrid</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>19</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/34139379</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.trsl.2021.06.002</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -857,75 +887,80 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>Department of Radiation Oncology.; Department of Medicine, and.; Department of Medicine, and.; Department of Medicine, and.; Department of Medicine, and.; Department of Medicine, and.; Department of Medicine, and.; Department of Anesthesiology, University of California Los Angeles, Los Angeles, California.; Department of Medicine, and.; Department of Medicine, and.; Department of Medicine, and.; Department of Medicine, and.; Department of Medicine, and.; ChromoLogic LLC, Monrovia, California; and.; ChromoLogic LLC, Monrovia, California; and.; ChromoLogic LLC, Monrovia, California; and.; ChromoLogic LLC, Monrovia, California; and.; Tulane National Primate Research Center, New Orleans, Louisiana.; Department of Medicine, and.; Department of Medicine, and.; Department of Cell and Molecular Medicine, University of Arizona Health Sciences, Tucson, Arizona.; Department of Medicine, and.</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4225117181</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>eNAMPT Is a Novel Damage-associated Molecular Pattern Protein That Contributes to the Severity of Radiation-induced Lung Fibrosis</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>2022-05-01</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>American Journal of Respiratory Cell and Molecular Biology</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>American Thoracic Society</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>https://doi.org/10.1165/rcmb.2021-0357oc</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>17</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35167418</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>https://doi.org/10.1165/rcmb.2021-0357oc</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -939,75 +974,80 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>Department of Medicine, University of Arizona Health Sciences, Tucson, AZ, United States; Department of Medicine, University of Arizona Health Sciences, Tucson, AZ, United States; Department of Medicine, University of Arizona Health Sciences, Tucson, AZ, United States; Department of Medicine, University of Arizona Health Sciences, Tucson, AZ, United States; Department of Medicine, University of Arizona Health Sciences, Tucson, AZ, United States; Department of Medicine, University of Arizona Health Sciences, Tucson, AZ, United States; Department of Medicine, University of Arizona Health Sciences, Tucson, AZ, United States; Department of Medicine, University of Arizona Health Sciences, Tucson, AZ, United States; Department of Anesthesiology, University of California Los Angeles, Los Angeles, CA, United States; Department of Medicine, University of Arizona Health Sciences, Tucson, AZ, United States; Department of Medicine, University of Illinois at Chicago, Chicago, IL, United States; Department of Medicine, University of Illinois at Chicago, Chicago, IL, United States; Department of Medicine, University of Illinois at Chicago, Chicago, IL, United States; Department of Radiology and the Translational Imaging Center, Houston Methodist Hospital and the Houston Methodist Research Institute, Houston, TX, United States; Department of Radiology and the Translational Imaging Center, Houston Methodist Hospital and the Houston Methodist Research Institute, Houston, TX, United States; Department of Medicine, University of Arizona Health Sciences, Tucson, AZ, United States; Department of Pathology, University of Arizona Health Sciences, Tucson, AZ, United States; Department of Medicine, University of Arizona Health Sciences, Tucson, AZ, United States; Department of Medicine, University of Arizona Health Sciences, Tucson, AZ, United States; Department of Medicine, University of Arizona Health Sciences, Tucson, AZ, United States</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4283397238</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>eNAMPT Neutralization Preserves Lung Fluid Balance and Reduces Acute Renal Injury in Porcine Sepsis/VILI-Induced Inflammatory Lung Injury</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>2022-06-22</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>Frontiers in Physiology</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>Frontiers Media</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>https://doi.org/10.3389/fphys.2022.916159</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="N8" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="O8" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35812318</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="P8" t="inlineStr">
         <is>
           <t>https://doi.org/10.3389/fphys.2022.916159</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1021,75 +1061,80 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>Department of Medicine, University of Arizona Health Sciences, Tucson, AZ, USA.; Department of Medicine, University of Arizona Health Sciences, Tucson, USA; Department of Medicine, University of Arizona Health Sciences, Tucson, USA; Department of Medicine, University of Arizona Health Sciences, Tucson, USA; Department of Medicine, University of Arizona Health Sciences, Tucson, USA; Department of Medicine, University of Arizona Health Sciences, Tucson, USA; University of Ulsan College of Medicine, Asan Medical Center, Seoul, Korea; US Army Institute of Surgical Research, San Antonio, USA; Ariel Precision Medicine, Pittsburgh, USA; University of Pittsburgh School of Medicine, Pittsburgh, USA; University of Pittsburgh School of Medicine, Pittsburgh, USA; Ohio State University College of Medicine, Columbus, USA; University of Pittsburgh School of Medicine, Pittsburgh, USA; Department of Medicine, University of Arizona Health Sciences, Tucson, USA</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4282925210</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>Circulating eNAMPT as a biomarker in the critically ill: acute pancreatitis, sepsis, trauma, and acute respiratory distress syndrome</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>2022-06-15</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>BMC Anesthesiology</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>BioMed Central</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>https://doi.org/10.1186/s12871-022-01718-1</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="N9" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35705899</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="P9" t="inlineStr">
         <is>
           <t>https://doi.org/10.1186/s12871-022-01718-1</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1103,75 +1148,80 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>Division of Pulmonary, Critical Care, Sleep and Allergy, Department of Medicine, University of Illinois at Chicago, Chicago, IL.; Department of Medicine, University of Arizona Health Sciences, Tucson, Arizona; Department of Medicine, University of Arizona Health Sciences, Tucson, Arizona; Department of Medicine, University of Arizona Health Sciences, Tucson, Arizona; Department of Medicine, University of Arizona Health Sciences, Tucson, Arizona; University of Minnesota, Minneapolis, Minnesota; Department of Medicine, University of Arizona Health Sciences, Tucson, Arizona; Department of Medicine, University of Arizona Health Sciences, Tucson, Arizona; Division of Pulmonary, Critical Care, Sleep and Allergy, Department of Medicine, University of Illinois at Chicago, Chicago, Illinois; Division of Pulmonary, Critical Care, Sleep and Allergy, Department of Medicine, University of Illinois at Chicago, Chicago, Illinois; Department of Medicine, Indiana University, Indianapolis, Indiana; Division of Pulmonary, Critical Care, Sleep and Allergy, Department of Medicine, University of Illinois at Chicago, Chicago, Illinois; Division of Pulmonary, Critical Care, Sleep and Allergy, Department of Medicine, University of Illinois at Chicago, Chicago, Illinois; Department of Medicine, University of Arizona Health Sciences, Tucson, Arizona; Department of Materials Science and Engineering, Northwestern University, Evanston, Illinois; Department of Materials Science and Engineering, Northwestern University, Evanston, Illinois; Division of Pulmonary, Allergy, and Critical Care Medicine and Lung Biology Institute, University of Pennsylvania Perelman School of Medicine, Philadelphia, Pennsylvania; Division of Pulmonary, Allergy, and Critical Care Medicine and Lung Biology Institute, University of Pennsylvania Perelman School of Medicine, Philadelphia, Pennsylvania; Department of Biostatistics, Epidemiology, and Informatics, University of Pennsylvania Perelman School of Medicine, Philadelphia, Pennsylvania; Division of Pulmonary, Critical Care, Sleep and Allergy, Department of Medicine, University of Illinois at Chicago, Chicago, Illinois; Division of Pulmonary, Allergy, and Critical Care Medicine and Lung Biology Institute, University of Pennsylvania Perelman School of Medicine, Philadelphia, Pennsylvania; Department of Medicine, University of Arizona Health Sciences, Tucson, Arizona; Department of Medicine, University of Arizona Health Sciences, Tucson, Arizona; Division of Pulmonary, Critical Care, Sleep and Allergy, Department of Medicine, University of Illinois at Chicago, Chicago, Illinois</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4213344769</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>A cortactin CTTN coding SNP contributes to lung vascular permeability and inflammatory disease severity in African descent subjects</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>2022-06-01</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>Translational Research</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.trsl.2022.02.002</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35181549</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="P10" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.trsl.2022.02.002</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
+      <c r="Q10" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1185,75 +1235,80 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>Department of Internal Medicine, Division of Pulmonary, Critical Care and Sleep Medicine, University of California Davis, 4150 V Street, Suite 3400, Sacramento, CA, 95817, USA. jcstocking@ucdavis.edu.; Department of Statistics, University of California Davis, Davis, USA; Department of Anesthesia and Perioperative Care, University of California San Francisco, San Francisco, USA; Department of Medicine, University of California Los Angeles, Los Angeles, USA; VA Greater Los Angeles Healthcare System, Los Angeles, USA; Department of Medicine, University of California Irvine, Irvine, USA; Department of Surgery, University of California San Diego, San Diego, USA; Department of Surgery, University of California San Diego, San Diego, USA; Department of Anesthesiology and Perioperative Medicine, University of California Los Angeles, Los Angeles, USA; Department of Anesthesia and Perioperative Care, University of California San Francisco, San Francisco, USA; Center for Healthcare Policy and Research, University of California Davis, Sacramento, USA; Department of Internal Medicine, Division of Pulmonary, Critical Care and Sleep Medicine, University of California Davis, Sacramento, USA; College of Medicine, University of Arizona Health Sciences, Tucson, USA; Center for Health Outcomes and PharmacoEconomic Research, University of Arizona, Tucson, USA; Center for Healthcare Policy and Research, University of California Davis, Sacramento, USA; Department of Surgery, Outcomes Research Group, University of California Davis, Sacramento, USA</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4280488836</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>Outcomes and risk factors for delayed-onset postoperative respiratory failure: a multi-center case-control study by the University of California Critical Care Research Collaborative (UC3RC)</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>2022-05-14</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>BMC Anesthesiology</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>BioMed Central</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>https://doi.org/10.1186/s12871-022-01681-x</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="N11" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="O11" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35568812</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
+      <c r="P11" t="inlineStr">
         <is>
           <t>https://doi.org/10.1186/s12871-022-01681-x</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
+      <c r="Q11" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1267,75 +1322,80 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>Department of Medicine, University of Arizona Health Sciences, Tucson, AZ, United States; Department of Medicine, University of Arizona Health Sciences, Tucson, AZ, United States; Department of Medicine, University of Arizona Health Sciences, Tucson, AZ, United States; Department of Pathology, University of Arizona Health Sciences, Tucson, AZ, United States; Department of Medicine, University of Arizona Health Sciences, Tucson, AZ, United States; Department of Medicine, University of Arizona Health Sciences, Tucson, AZ, United States; Department of Medicine, University of Arizona Health Sciences, Tucson, AZ, United States; Department of Medicine, University of Arizona Health Sciences, Tucson, AZ, United States; Instituto Nacional de Ciencias Médicas y Nutrición Salvador Zubirán, México City, Mexico; Instituto Nacional de Enfermedades Respiratorias, México City, Mexico; Department of Medicine, University of Arizona Health Sciences, Tucson, AZ, United States; Instituto Nacional de Ciencias Médicas y Nutrición Salvador Zubirán, México City, Mexico; Department of Medicine, College of Medicine, University of Florida, Jacksonville, FL, United States; Department of Medicine, University of Arizona Health Sciences, Tucson, AZ, United States; Department of Medicine, University of Arizona Health Sciences, Tucson, AZ, United States; Department of Medicine, University of Arizona Health Sciences, Tucson, AZ, United States</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4307371954</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>Biochemical and genomic identification of novel biomarkers in progressive sarcoidosis: HBEGF, eNAMPT, and ANG-2</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>2022-10-25</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>Frontiers in Medicine</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>Frontiers Media</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>https://doi.org/10.3389/fmed.2022.1012827</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="N12" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="O12" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36388923</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
+      <c r="P12" t="inlineStr">
         <is>
           <t>https://doi.org/10.3389/fmed.2022.1012827</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr">
+      <c r="Q12" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1349,75 +1409,80 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>Clinical &amp; Data Coordinating Center (CDCC); Precision Vaccines Program, Boston Children’s Hospital, Boston, MA; David Geffen School of Medicine at the University of California Los Angeles, Los Angeles, CA; Benaroya Research Institute, Seattle, WA; Clinical &amp; Data Coordinating Center (CDCC); Precision Vaccines Program, Boston Children’s Hospital, Boston, MA; University of California San Francisco School of Medicine, San Francisco, CA; Drexel University/Tower Health Hospital, Philadelphia, PA; University of Arizona, Tucson, AZ; Boston Clinical Site: Precision Vaccines Program, Boston Children’s Hospital, Brigham and Women’s Hospital, and Harvard Medical School, Boston, MA; Yale School of Medicine, and Yale School of Public Health, New Haven, CT; Icahn School of Medicine at Mount Sinai, New York, NY; Icahn School of Medicine at Mount Sinai, New York, NY; Yale School of Medicine, and Yale School of Public Health, New Haven, CT; Clinical &amp; Data Coordinating Center (CDCC); Precision Vaccines Program, Boston Children’s Hospital, Boston, MA; Icahn School of Medicine at Mount Sinai, New York, NY; Icahn School of Medicine at Mount Sinai, New York, NY; Yale School of Medicine, and Yale School of Public Health, New Haven, CT; Yale School of Medicine, and Yale School of Public Health, New Haven, CT; Yale School of Medicine, and Yale School of Public Health, New Haven, CT; Boston Clinical Site: Precision Vaccines Program, Boston Children’s Hospital, Brigham and Women’s Hospital, and Harvard Medical School, Boston, MA; University of Arizona, Tucson, AZ; Drexel University/Tower Health Hospital, Philadelphia, PA; University of California San Francisco School of Medicine, San Francisco, CA; Stanford University, Palo Alto, CA; Stanford University, Palo Alto, CA; Stanford University, Palo Alto, CA; Oregon Health Sciences University, Portland, OR; Oregon Health Sciences University, Portland, OR; Oklahoma University Health Sciences Center, Oklahoma, OK; Oklahoma University Health Sciences Center, Oklahoma, OK; University of Florida, Gainesville and University of South Florida, Tampa, FL; University of Florida, Gainesville and University of South Florida, Tampa, FL; Baylor College of Medicine, and the Center for Translational Research on Inflammatory Diseases, Michael E. DeBakey, Houston, TX; Baylor College of Medicine, and the Center for Translational Research on Inflammatory Diseases, Michael E. DeBakey, Houston, TX; The University of Texas at Austin, Austin, TX; The University of Texas at Austin, Austin, TX; Case Western Reserve University, Cleveland, OH; Case Western Reserve University, Cleveland, OH; Clinical &amp; Data Coordinating Center (CDCC); Precision Vaccines Program, Boston Children’s Hospital, Boston, MA; La Jolla Institute for Immunology, La Jolla, CA; National Institute of Allergy and Infectious Diseases/National Institutes of Health, Bethesda, MD; David Geffen School of Medicine at the University of California Los Angeles, Los Angeles, CA; Benaroya Research Institute, Seattle, WA; National Institute of Allergy and Infectious Diseases/National Institutes of Health, Bethesda, MD; Emory University, Atlanta, GA</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4284712509</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>Phenotypes of disease severity in a cohort of hospitalized COVID-19 patients: results from the IMPACC study</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>2022-07-05</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>medRxiv (Cold Spring Harbor Laboratory)</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>Cold Spring Harbor Laboratory</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>https://doi.org/10.1101/2022.07.02.22273396</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>cc-by-nd</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="N13" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
+      <c r="O13" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O13" t="inlineStr">
+      <c r="P13" t="inlineStr">
         <is>
           <t>https://doi.org/10.1101/2022.07.02.22273396</t>
         </is>
       </c>
-      <c r="P13" t="inlineStr">
+      <c r="Q13" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1431,75 +1496,80 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>University of California Davis Medical Center; University of California Davis; University of California San Francisco; University of California Los Angeles; University of California Irvine; University of California San Diego; University of California San Diego; University of California Los Angeles; University of California San Francisco; University of California Davis; University of California Davis; The University of Arizona Health Sciences; The University of Arizona; University of California Davis</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4220969699</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>Outcomes and Risk Factors for Delayed-Onset Postoperative Respiratory Failure: A Multi-Center Case-Control Study by the University of California Critical Care Research Collaborative (UC3RC)</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>2022-03-09</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>Research Square (Research Square)</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>Research Square (United States)</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>https://doi.org/10.21203/rs.3.rs-824536/v1</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr">
+      <c r="J14" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="L14" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="M14" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
+      <c r="N14" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr">
+      <c r="O14" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O14" t="inlineStr">
+      <c r="P14" t="inlineStr">
         <is>
           <t>https://doi.org/10.21203/rs.3.rs-824536/v1</t>
         </is>
       </c>
-      <c r="P14" t="inlineStr">
+      <c r="Q14" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1513,75 +1583,80 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t xml:space="preserve">; </t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4253274986</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>Respiratory Health in Migrants and Refugees</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>2022-01-01</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>Elsevier eBooks</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/b978-0-08-102723-3.00063-9</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr">
+      <c r="J15" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J15" t="inlineStr">
+      <c r="K15" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr">
+      <c r="L15" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="M15" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr">
+      <c r="N15" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N15" t="inlineStr">
+      <c r="O15" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O15" t="inlineStr">
+      <c r="P15" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/b978-0-08-102723-3.00063-9</t>
         </is>
       </c>
-      <c r="P15" t="inlineStr">
+      <c r="Q15" t="inlineStr">
         <is>
           <t>book-chapter</t>
         </is>
@@ -1595,75 +1670,80 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>Department of Immunobiology, University of Arizona College of Medicine-Tucson, Tucson, AZ, USA; Department of Immunobiology, University of Arizona College of Medicine-Tucson, Tucson, AZ, USA; Department of Immunobiology, University of Arizona College of Medicine-Tucson, Tucson, AZ, USA; Department of Immunobiology, University of Arizona College of Medicine-Tucson, Tucson, AZ, USA; Department of Immunobiology, University of Arizona College of Medicine-Tucson, Tucson, AZ, USA; Department of Immunobiology, University of Arizona College of Medicine-Tucson, Tucson, AZ, USA; Department of Immunobiology, University of Arizona College of Medicine-Tucson, Tucson, AZ, USA; Department of Immunobiology, University of Arizona College of Medicine-Tucson, Tucson, AZ, USA; Department of Medicine, University of Arizona College of Medicine-Phoenix, Phoenix, AZ, USA; Division of Pulmonary Medicine, Department of Medicine, Indiana University, Indianapolis, IN, USA; Division of Pulmonary Medicine, Department of Medicine, Indiana University, Indianapolis, IN, USA; Department of Medicine, University of Arizona College of Medicine-Phoenix, Phoenix, AZ, USA; ; The Division of Vascular Surgery, University of Arizona, Tucson, AZ, USA; Division of Pulmonary, Allergy, Critical Care &amp; Sleep Medicine, University of Arizona College of Medicine Tucson, AZ, USA; Division of Pulmonary, Allergy, Critical Care &amp; Sleep Medicine, University of Arizona College of Medicine Tucson, AZ, USA; Division of Pulmonary, Allergy, Critical Care &amp; Sleep Medicine, University of Arizona College of Medicine Tucson, AZ, USA; Division of Pulmonary, Allergy, Critical Care &amp; Sleep Medicine, University of Arizona College of Medicine Tucson, AZ, USA; BIO5 Institute, University of Arizona, Tucson, USA; R. Ken Coit College of Pharmacy; Department of Immunobiology, University of Arizona College of Medicine-Tucson, Tucson, AZ, USA; R. Ken Coit College of Pharmacy; Department of Immunobiology, University of Arizona College of Medicine-Tucson, Tucson, AZ, USA; R. Ken Coit College of Pharmacy</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4312096929</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>T-cell cellular stress and reticulocyte signatures, but not loss of naïve T lymphocytes, characterize severe COVID-19 in older adults</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>2022-12-22</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>bioRxiv (Cold Spring Harbor Laboratory)</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>Cold Spring Harbor Laboratory</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>https://doi.org/10.1101/2022.12.21.521463</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>cc-by-nc-nd</t>
         </is>
       </c>
-      <c r="I16" t="inlineStr">
+      <c r="J16" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J16" t="inlineStr">
+      <c r="K16" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr">
+      <c r="L16" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L16" t="inlineStr">
+      <c r="M16" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M16" t="inlineStr">
+      <c r="N16" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N16" t="inlineStr">
+      <c r="O16" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36597549</t>
         </is>
       </c>
-      <c r="O16" t="inlineStr">
+      <c r="P16" t="inlineStr">
         <is>
           <t>https://doi.org/10.1101/2022.12.21.521463</t>
         </is>
       </c>
-      <c r="P16" t="inlineStr">
+      <c r="Q16" t="inlineStr">
         <is>
           <t>article</t>
         </is>

--- a/DOM_Banner/output/dept0713/Christian Bime_2022.xlsx
+++ b/DOM_Banner/output/dept0713/Christian Bime_2022.xlsx
@@ -681,7 +681,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>22</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -768,7 +768,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>22</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -942,7 +942,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>19</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -1029,7 +1029,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>11</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -1061,7 +1061,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Department of Medicine, University of Arizona Health Sciences, Tucson, AZ, USA.; Department of Medicine, University of Arizona Health Sciences, Tucson, USA; Department of Medicine, University of Arizona Health Sciences, Tucson, USA; Department of Medicine, University of Arizona Health Sciences, Tucson, USA; Department of Medicine, University of Arizona Health Sciences, Tucson, USA; Department of Medicine, University of Arizona Health Sciences, Tucson, USA; University of Ulsan College of Medicine, Asan Medical Center, Seoul, Korea; US Army Institute of Surgical Research, San Antonio, USA; Ariel Precision Medicine, Pittsburgh, USA; University of Pittsburgh School of Medicine, Pittsburgh, USA; University of Pittsburgh School of Medicine, Pittsburgh, USA; Ohio State University College of Medicine, Columbus, USA; University of Pittsburgh School of Medicine, Pittsburgh, USA; Department of Medicine, University of Arizona Health Sciences, Tucson, USA</t>
+          <t>Department of Medicine, University of Arizona Health Sciences, Tucson, AZ, USA; Department of Medicine, University of Arizona Health Sciences, Tucson, AZ, USA; Department of Medicine, University of Arizona Health Sciences, Tucson, AZ, USA; Department of Medicine, University of Arizona Health Sciences, Tucson, AZ, USA; Department of Medicine, University of Arizona Health Sciences, Tucson, AZ, USA; Department of Medicine, University of Arizona Health Sciences, Tucson, AZ, USA; University of Ulsan College of Medicine, Asan Medical Center, Seoul, Korea; US Army Institute of Surgical Research, San Antonio, TX, USA; University of Pittsburgh School of Medicine, Pittsburgh, PA, USA; University of Pittsburgh School of Medicine, Pittsburgh, PA, USA; University of Pittsburgh School of Medicine, Pittsburgh, PA, USA; Department of Medicine, University of Arizona Health Sciences, Tucson, AZ, USA</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1116,7 +1116,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -1230,42 +1230,42 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Jacqueline C. Stocking, Christiana Drake, Janet Aldrich, Michael Ong, Alpesh Amin, Rebecca A. Marmor, Laura N Godat, Maxime Cannesson, Michael A. Gropper, Patrick S. Romano, Christian Sandrock, Christian Bime, Ivo Abraham, Garth H. Utter</t>
+          <t>Nancy G. Casanova, Vivian Reyes-Hernon, Taylor Gregory, Belinda Sun, Tadeo Bermudez, Matthew Hufford, Radu C. Oita, Sara M. Camp, Gabriela Hernández-Molina, Jorge Rojas Serrano, Xiaoguang Sun, Jocelyn Fimbres, Mehdi Mirsaeidi, Saad Sammani, Christian Bime, Joe G.N. Garcia</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Department of Internal Medicine, Division of Pulmonary, Critical Care and Sleep Medicine, University of California Davis, 4150 V Street, Suite 3400, Sacramento, CA, 95817, USA. jcstocking@ucdavis.edu.; Department of Statistics, University of California Davis, Davis, USA; Department of Anesthesia and Perioperative Care, University of California San Francisco, San Francisco, USA; Department of Medicine, University of California Los Angeles, Los Angeles, USA; VA Greater Los Angeles Healthcare System, Los Angeles, USA; Department of Medicine, University of California Irvine, Irvine, USA; Department of Surgery, University of California San Diego, San Diego, USA; Department of Surgery, University of California San Diego, San Diego, USA; Department of Anesthesiology and Perioperative Medicine, University of California Los Angeles, Los Angeles, USA; Department of Anesthesia and Perioperative Care, University of California San Francisco, San Francisco, USA; Center for Healthcare Policy and Research, University of California Davis, Sacramento, USA; Department of Internal Medicine, Division of Pulmonary, Critical Care and Sleep Medicine, University of California Davis, Sacramento, USA; College of Medicine, University of Arizona Health Sciences, Tucson, USA; Center for Health Outcomes and PharmacoEconomic Research, University of Arizona, Tucson, USA; Center for Healthcare Policy and Research, University of California Davis, Sacramento, USA; Department of Surgery, Outcomes Research Group, University of California Davis, Sacramento, USA</t>
+          <t>Department of Medicine, University of Arizona Health Sciences, Tucson, AZ, United States; Department of Medicine, University of Arizona Health Sciences, Tucson, AZ, United States; Department of Medicine, University of Arizona Health Sciences, Tucson, AZ, United States; Department of Pathology, University of Arizona Health Sciences, Tucson, AZ, United States; Department of Medicine, University of Arizona Health Sciences, Tucson, AZ, United States; Department of Medicine, University of Arizona Health Sciences, Tucson, AZ, United States; Department of Medicine, University of Arizona Health Sciences, Tucson, AZ, United States; Department of Medicine, University of Arizona Health Sciences, Tucson, AZ, United States; Instituto Nacional de Ciencias Médicas y Nutrición Salvador Zubirán, México City, Mexico; Instituto Nacional de Enfermedades Respiratorias, México City, Mexico; Department of Medicine, University of Arizona Health Sciences, Tucson, AZ, United States; Instituto Nacional de Ciencias Médicas y Nutrición Salvador Zubirán, México City, Mexico; Department of Medicine, College of Medicine, University of Florida, Jacksonville, FL, United States; Department of Medicine, University of Arizona Health Sciences, Tucson, AZ, United States; Department of Medicine, University of Arizona Health Sciences, Tucson, AZ, United States; Department of Medicine, University of Arizona Health Sciences, Tucson, AZ, United States</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4280488836</t>
+          <t>https://openalex.org/W4307371954</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Outcomes and risk factors for delayed-onset postoperative respiratory failure: a multi-center case-control study by the University of California Critical Care Research Collaborative (UC3RC)</t>
+          <t>Biochemical and genomic identification of novel biomarkers in progressive sarcoidosis: HBEGF, eNAMPT, and ANG-2</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2022-05-14</t>
+          <t>2022-10-25</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>BMC Anesthesiology</t>
+          <t>Frontiers in Medicine</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>BioMed Central</t>
+          <t>Frontiers Media</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1186/s12871-022-01681-x</t>
+          <t>https://doi.org/10.3389/fmed.2022.1012827</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1300,12 +1300,12 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/35568812</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/36388923</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1186/s12871-022-01681-x</t>
+          <t>https://doi.org/10.3389/fmed.2022.1012827</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
@@ -1317,42 +1317,42 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Nancy G. Casanova, Vivian Reyes-Hernon, Taylor Gregory, Belinda Sun, Tadeo Bermudez, Matthew Hufford, Radu C. Oita, Sara M. Camp, Gabriela Hernández-Molina, Jorge Rojas Serrano, Xiaoguang Sun, Jocelyn Fimbres, Mehdi Mirsaeidi, Saad Sammani, Christian Bime, Joe G.N. Garcia</t>
+          <t>Jacqueline C. Stocking, Christiana Drake, Janet Aldrich, Michael Ong, Alpesh Amin, Rebecca A. Marmor, Laura N Godat, Maxime Cannesson, Michael A. Gropper, Patrick S. Romano, Christian Sandrock, Christian Bime, Ivo Abraham, Garth H. Utter</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Department of Medicine, University of Arizona Health Sciences, Tucson, AZ, United States; Department of Medicine, University of Arizona Health Sciences, Tucson, AZ, United States; Department of Medicine, University of Arizona Health Sciences, Tucson, AZ, United States; Department of Pathology, University of Arizona Health Sciences, Tucson, AZ, United States; Department of Medicine, University of Arizona Health Sciences, Tucson, AZ, United States; Department of Medicine, University of Arizona Health Sciences, Tucson, AZ, United States; Department of Medicine, University of Arizona Health Sciences, Tucson, AZ, United States; Department of Medicine, University of Arizona Health Sciences, Tucson, AZ, United States; Instituto Nacional de Ciencias Médicas y Nutrición Salvador Zubirán, México City, Mexico; Instituto Nacional de Enfermedades Respiratorias, México City, Mexico; Department of Medicine, University of Arizona Health Sciences, Tucson, AZ, United States; Instituto Nacional de Ciencias Médicas y Nutrición Salvador Zubirán, México City, Mexico; Department of Medicine, College of Medicine, University of Florida, Jacksonville, FL, United States; Department of Medicine, University of Arizona Health Sciences, Tucson, AZ, United States; Department of Medicine, University of Arizona Health Sciences, Tucson, AZ, United States; Department of Medicine, University of Arizona Health Sciences, Tucson, AZ, United States</t>
+          <t>Department of Internal Medicine, Division of Pulmonary, Critical Care and Sleep Medicine, University of California Davis, 4150 V Street, Suite 3400, Sacramento, CA, 95817, USA. jcstocking@ucdavis.edu.; Department of Statistics, University of California Davis, Davis, USA; Department of Anesthesia and Perioperative Care, University of California San Francisco, San Francisco, USA; Department of Medicine, University of California Los Angeles, Los Angeles, USA; VA Greater Los Angeles Healthcare System, Los Angeles, USA; Department of Medicine, University of California Irvine, Irvine, USA; Department of Surgery, University of California San Diego, San Diego, USA; Department of Surgery, University of California San Diego, San Diego, USA; Department of Anesthesiology and Perioperative Medicine, University of California Los Angeles, Los Angeles, USA; Department of Anesthesia and Perioperative Care, University of California San Francisco, San Francisco, USA; Center for Healthcare Policy and Research, University of California Davis, Sacramento, USA; Department of Internal Medicine, Division of Pulmonary, Critical Care and Sleep Medicine, University of California Davis, Sacramento, USA; College of Medicine, University of Arizona Health Sciences, Tucson, USA; Center for Health Outcomes and PharmacoEconomic Research, University of Arizona, Tucson, USA; Center for Healthcare Policy and Research, University of California Davis, Sacramento, USA; Department of Surgery, Outcomes Research Group, University of California Davis, Sacramento, USA</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4307371954</t>
+          <t>https://openalex.org/W4280488836</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Biochemical and genomic identification of novel biomarkers in progressive sarcoidosis: HBEGF, eNAMPT, and ANG-2</t>
+          <t>Outcomes and risk factors for delayed-onset postoperative respiratory failure: a multi-center case-control study by the University of California Critical Care Research Collaborative (UC3RC)</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2022-10-25</t>
+          <t>2022-05-14</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Frontiers in Medicine</t>
+          <t>BMC Anesthesiology</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Frontiers Media</t>
+          <t>BioMed Central</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>https://doi.org/10.3389/fmed.2022.1012827</t>
+          <t>https://doi.org/10.1186/s12871-022-01681-x</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1377,7 +1377,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -1387,12 +1387,12 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/36388923</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/35568812</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>https://doi.org/10.3389/fmed.2022.1012827</t>
+          <t>https://doi.org/10.1186/s12871-022-01681-x</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
@@ -1491,57 +1491,57 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Jacqueline C. Stocking, Christiana Drake, Janet Aldrich, Michael Ong, Alpesh Amin, Rebecca A. Marmor, Laura N Godat, Maxine Cannesson, Michael A. Gropper, Patrick S. Romano, Christian Sandrock, Christian Bime, Ivo Abraham, Garth H. Utter</t>
+          <t>Christian Bime, Juan C. Celedón</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>University of California Davis Medical Center; University of California Davis; University of California San Francisco; University of California Los Angeles; University of California Irvine; University of California San Diego; University of California San Diego; University of California Los Angeles; University of California San Francisco; University of California Davis; University of California Davis; The University of Arizona Health Sciences; The University of Arizona; University of California Davis</t>
+          <t xml:space="preserve">; </t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4220969699</t>
+          <t>https://openalex.org/W4253274986</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Outcomes and Risk Factors for Delayed-Onset Postoperative Respiratory Failure: A Multi-Center Case-Control Study by the University of California Critical Care Research Collaborative (UC3RC)</t>
+          <t>Respiratory Health in Migrants and Refugees</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2022-03-09</t>
+          <t>2022-01-01</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Research Square (Research Square)</t>
+          <t>Elsevier eBooks</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Research Square (United States)</t>
+          <t>Elsevier BV</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>https://doi.org/10.21203/rs.3.rs-824536/v1</t>
+          <t>https://doi.org/10.1016/b978-0-08-102723-3.00063-9</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>submittedVersion</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>green</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -1566,69 +1566,69 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>https://doi.org/10.21203/rs.3.rs-824536/v1</t>
+          <t>https://doi.org/10.1016/b978-0-08-102723-3.00063-9</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>article</t>
+          <t>book-chapter</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Christian Bime, Juan C. Celedón</t>
+          <t>Jacqueline C. Stocking, Christiana Drake, Janet Aldrich, Michael Ong, Alpesh Amin, Rebecca A. Marmor, Laura N Godat, Maxine Cannesson, Michael A. Gropper, Patrick S. Romano, Christian Sandrock, Christian Bime, Ivo Abraham, Garth H. Utter</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t xml:space="preserve">; </t>
+          <t>University of California Davis Medical Center; University of California Davis; University of California San Francisco; University of California Los Angeles; University of California Irvine; University of California San Diego; University of California San Diego; University of California Los Angeles; University of California San Francisco; University of California Davis; University of California Davis; The University of Arizona Health Sciences; The University of Arizona; University of California Davis</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4253274986</t>
+          <t>https://openalex.org/W4220969699</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Respiratory Health in Migrants and Refugees</t>
+          <t>Outcomes and Risk Factors for Delayed-Onset Postoperative Respiratory Failure: A Multi-Center Case-Control Study by the University of California Critical Care Research Collaborative (UC3RC)</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2022-01-01</t>
+          <t>2022-03-09</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Elsevier eBooks</t>
+          <t>Research Square (Research Square)</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Research Square (United States)</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/b978-0-08-102723-3.00063-9</t>
+          <t>https://doi.org/10.21203/rs.3.rs-824536/v1</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>cc-by</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>submittedVersion</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>green</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -1653,19 +1653,19 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/b978-0-08-102723-3.00063-9</t>
+          <t>https://doi.org/10.21203/rs.3.rs-824536/v1</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>book-chapter</t>
+          <t>article</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Mladen Jergović, Makiko Watanabe, Ruchika Bhat, Christopher P Coplen, Sandip Ashok Sonar, Rachel Wong, Yvonne Castaneda, Lisa B. Davidson, Mrinalini Kala, Rachel C Wilson, Homer L. Twigg, Kenneth S. Knox, Heidi E Erickson, Craig Weinkauf, Christian Bime, Billie Bixby, Sairam Parthasarathy, Jarrod Mosier, Bonnie LaFleur, Deepta Bhattacharya, Janko Nikolich‐Žugich</t>
+          <t>Mladen Jergović, Makiko Watanabe, Ruchika Bhat, Christopher P Coplen, Sandip Ashok Sonar, Rachel Wong, Yvonne Castaneda, Lisa Davidson, Mrinalini Kala, Rachel C. Wilson, Homer L. Twigg, Kenneth S. Knox, Heidi E Erickson, Craig Weinkauf, Christian Bime, Billie Bixby, Sairam Parthasarathy, Jarrod Mosier, Bonnie LaFleur, Deepta Bhattacharya, Janko Nikolich‐Žugich</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
